--- a/database/industries/ravankar/sheranol/cost/quarterly.xlsx
+++ b/database/industries/ravankar/sheranol/cost/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ravankar\sheranol\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ravankar\sheranol\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE98396-3171-42F8-AE81-A2F522095149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="9450"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="83">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -31,6 +32,21 @@
   </si>
   <si>
     <t>بهای تمام شده</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -258,7 +274,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -428,7 +444,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -440,7 +456,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -487,6 +503,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -522,6 +555,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -673,17 +723,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I193"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:N193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -692,8 +742,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -704,8 +759,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -716,8 +776,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -726,8 +791,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -738,8 +808,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -750,8 +825,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -760,8 +840,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -782,8 +867,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -792,98 +892,163 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>7160296</v>
+      </c>
+      <c r="F10" s="9">
+        <v>8691261</v>
+      </c>
+      <c r="G10" s="9">
+        <v>12127381</v>
+      </c>
+      <c r="H10" s="9">
+        <v>13932347</v>
+      </c>
+      <c r="I10" s="9">
+        <v>15756867</v>
+      </c>
+      <c r="J10" s="9">
         <v>18864323</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>18785338</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>24663197</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>24149484</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>18652132</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>134070</v>
+      </c>
+      <c r="F11" s="11">
+        <v>128889</v>
+      </c>
+      <c r="G11" s="11">
+        <v>190438</v>
+      </c>
+      <c r="H11" s="11">
+        <v>182025</v>
+      </c>
+      <c r="I11" s="11">
+        <v>209084</v>
+      </c>
+      <c r="J11" s="11">
         <v>166021</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>226181</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>354336</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>442745</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>353933</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>659455</v>
+      </c>
+      <c r="F12" s="9">
+        <v>743057</v>
+      </c>
+      <c r="G12" s="9">
+        <v>715172</v>
+      </c>
+      <c r="H12" s="9">
+        <v>773719</v>
+      </c>
+      <c r="I12" s="9">
+        <v>913339</v>
+      </c>
+      <c r="J12" s="9">
         <v>987795</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>2981934</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>2009440</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>3341352</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>3163271</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>7953821</v>
+      </c>
+      <c r="F13" s="13">
+        <v>9563207</v>
+      </c>
+      <c r="G13" s="13">
+        <v>13032991</v>
+      </c>
+      <c r="H13" s="13">
+        <v>14888091</v>
+      </c>
+      <c r="I13" s="13">
+        <v>16879290</v>
+      </c>
+      <c r="J13" s="13">
         <v>20018139</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>21993453</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>27026973</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>27933581</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>22169336</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -902,54 +1067,99 @@
       <c r="I14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
+        <v>7953821</v>
+      </c>
+      <c r="F15" s="13">
+        <v>9563207</v>
+      </c>
+      <c r="G15" s="13">
+        <v>13032991</v>
+      </c>
+      <c r="H15" s="13">
+        <v>14888091</v>
+      </c>
+      <c r="I15" s="13">
+        <v>16879290</v>
+      </c>
+      <c r="J15" s="13">
         <v>20018139</v>
       </c>
-      <c r="F15" s="13">
+      <c r="K15" s="13">
         <v>21993453</v>
       </c>
-      <c r="G15" s="13">
+      <c r="L15" s="13">
         <v>27026973</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>27933581</v>
       </c>
-      <c r="I15" s="13">
+      <c r="N15" s="13">
         <v>22169336</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
+        <v>-14077</v>
+      </c>
+      <c r="F16" s="9">
+        <v>42561</v>
+      </c>
+      <c r="G16" s="9">
+        <v>94627</v>
+      </c>
+      <c r="H16" s="9">
+        <v>-2625703</v>
+      </c>
+      <c r="I16" s="9">
+        <v>-1781256</v>
+      </c>
+      <c r="J16" s="9">
         <v>82353</v>
       </c>
-      <c r="F16" s="9">
+      <c r="K16" s="9">
         <v>-569402</v>
       </c>
-      <c r="G16" s="9">
+      <c r="L16" s="9">
         <v>-1436504</v>
       </c>
-      <c r="H16" s="9">
+      <c r="M16" s="9">
         <v>-1755891</v>
       </c>
-      <c r="I16" s="9">
+      <c r="N16" s="9">
         <v>1199985</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -968,32 +1178,62 @@
       <c r="I17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
+        <v>7939744</v>
+      </c>
+      <c r="F18" s="15">
+        <v>9605768</v>
+      </c>
+      <c r="G18" s="15">
+        <v>13127618</v>
+      </c>
+      <c r="H18" s="15">
+        <v>12262388</v>
+      </c>
+      <c r="I18" s="15">
+        <v>15098034</v>
+      </c>
+      <c r="J18" s="15">
         <v>20100492</v>
       </c>
-      <c r="F18" s="15">
+      <c r="K18" s="15">
         <v>21424051</v>
       </c>
-      <c r="G18" s="15">
+      <c r="L18" s="15">
         <v>25590469</v>
       </c>
-      <c r="H18" s="15">
+      <c r="M18" s="15">
         <v>26177690</v>
       </c>
-      <c r="I18" s="15">
+      <c r="N18" s="15">
         <v>23369321</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -1001,107 +1241,182 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <v>1</v>
+      </c>
+      <c r="H19" s="11">
+        <v>602773</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
         <v>460895</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>1833301</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>2428790</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>2799861</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
+        <v>241250</v>
+      </c>
+      <c r="F20" s="9">
+        <v>335480</v>
+      </c>
+      <c r="G20" s="9">
+        <v>89196</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-1174141</v>
+      </c>
+      <c r="I20" s="9">
+        <v>-48557</v>
+      </c>
+      <c r="J20" s="9">
         <v>-460895</v>
       </c>
-      <c r="F20" s="9">
+      <c r="K20" s="9">
         <v>-1833301</v>
       </c>
-      <c r="G20" s="9">
+      <c r="L20" s="9">
         <v>-2428790</v>
       </c>
-      <c r="H20" s="9">
+      <c r="M20" s="9">
         <v>-2799861</v>
       </c>
-      <c r="I20" s="9">
+      <c r="N20" s="9">
         <v>-2827475</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
+        <v>8180994</v>
+      </c>
+      <c r="F21" s="13">
+        <v>9941248</v>
+      </c>
+      <c r="G21" s="13">
+        <v>13216815</v>
+      </c>
+      <c r="H21" s="13">
+        <v>11691020</v>
+      </c>
+      <c r="I21" s="13">
+        <v>15049477</v>
+      </c>
+      <c r="J21" s="13">
         <v>19639597</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>21274343</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>24994980</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>25806619</v>
       </c>
-      <c r="I21" s="13">
+      <c r="N21" s="13">
         <v>23341707</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9">
+        <v>60282</v>
+      </c>
+      <c r="F22" s="9">
+        <v>21518</v>
+      </c>
+      <c r="G22" s="9">
+        <v>50420</v>
+      </c>
+      <c r="H22" s="9">
+        <v>276</v>
+      </c>
+      <c r="I22" s="9">
+        <v>-441572</v>
+      </c>
+      <c r="J22" s="9">
         <v>98955</v>
       </c>
-      <c r="F22" s="9">
+      <c r="K22" s="9">
         <v>777753</v>
       </c>
-      <c r="G22" s="9">
+      <c r="L22" s="9">
         <v>-14264</v>
       </c>
-      <c r="H22" s="9">
+      <c r="M22" s="9">
         <v>485623</v>
       </c>
-      <c r="I22" s="9">
+      <c r="N22" s="9">
         <v>163699</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>8241276</v>
+      </c>
+      <c r="F23" s="13">
+        <v>9962766</v>
+      </c>
+      <c r="G23" s="13">
+        <v>13267235</v>
+      </c>
+      <c r="H23" s="13">
+        <v>11691296</v>
+      </c>
+      <c r="I23" s="13">
+        <v>14607905</v>
+      </c>
+      <c r="J23" s="13">
         <v>19738552</v>
       </c>
-      <c r="F23" s="13">
+      <c r="K23" s="13">
         <v>22052096</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>24980716</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>26292242</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>23505406</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1110,8 +1425,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1120,8 +1440,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1130,10 +1455,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1152,8 +1482,23 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1162,37 +1507,57 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
+        <v>9025</v>
+      </c>
+      <c r="F29" s="9">
+        <v>8360</v>
+      </c>
+      <c r="G29" s="9">
+        <v>8564</v>
+      </c>
+      <c r="H29" s="9">
+        <v>13254</v>
+      </c>
+      <c r="I29" s="9">
+        <v>13254</v>
+      </c>
+      <c r="J29" s="9">
         <v>14570</v>
       </c>
-      <c r="F29" s="9">
+      <c r="K29" s="9">
         <v>13954</v>
       </c>
-      <c r="G29" s="9">
+      <c r="L29" s="9">
         <v>15974</v>
       </c>
-      <c r="H29" s="9">
+      <c r="M29" s="9">
         <v>14438</v>
       </c>
-      <c r="I29" s="9">
+      <c r="N29" s="9">
         <v>11778</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
@@ -1202,134 +1567,224 @@
         <v>0</v>
       </c>
       <c r="G30" s="11">
+        <v>0</v>
+      </c>
+      <c r="H30" s="11">
+        <v>0</v>
+      </c>
+      <c r="I30" s="11">
+        <v>0</v>
+      </c>
+      <c r="J30" s="11">
+        <v>0</v>
+      </c>
+      <c r="K30" s="11">
+        <v>0</v>
+      </c>
+      <c r="L30" s="11">
         <v>1</v>
       </c>
-      <c r="H30" s="11">
+      <c r="M30" s="11">
         <v>1</v>
       </c>
-      <c r="I30" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="N30" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
+        <v>304</v>
+      </c>
+      <c r="F31" s="9">
+        <v>353</v>
+      </c>
+      <c r="G31" s="9">
+        <v>1513</v>
+      </c>
+      <c r="H31" s="9">
+        <v>188</v>
+      </c>
+      <c r="I31" s="9">
+        <v>128</v>
+      </c>
+      <c r="J31" s="9">
         <v>301</v>
       </c>
-      <c r="F31" s="9">
+      <c r="K31" s="9">
         <v>314</v>
       </c>
-      <c r="G31" s="9">
+      <c r="L31" s="9">
         <v>116</v>
       </c>
-      <c r="H31" s="9">
+      <c r="M31" s="9">
         <v>714</v>
       </c>
-      <c r="I31" s="9">
+      <c r="N31" s="9">
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
+        <v>18243</v>
+      </c>
+      <c r="F32" s="11">
+        <v>10055</v>
+      </c>
+      <c r="G32" s="11">
+        <v>8519</v>
+      </c>
+      <c r="H32" s="11">
+        <v>14473</v>
+      </c>
+      <c r="I32" s="11">
+        <v>26018</v>
+      </c>
+      <c r="J32" s="11">
         <v>28072</v>
       </c>
-      <c r="F32" s="11">
+      <c r="K32" s="11">
         <v>15488</v>
       </c>
-      <c r="G32" s="11">
+      <c r="L32" s="11">
         <v>17089</v>
       </c>
-      <c r="H32" s="11">
+      <c r="M32" s="11">
         <v>6206</v>
       </c>
-      <c r="I32" s="11">
+      <c r="N32" s="11">
         <v>9577</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
+        <v>2077</v>
+      </c>
+      <c r="F33" s="9">
+        <v>2450</v>
+      </c>
+      <c r="G33" s="9">
+        <v>3791</v>
+      </c>
+      <c r="H33" s="9">
+        <v>1662</v>
+      </c>
+      <c r="I33" s="9">
+        <v>2330</v>
+      </c>
+      <c r="J33" s="9">
         <v>4035</v>
       </c>
-      <c r="F33" s="9">
+      <c r="K33" s="9">
         <v>6675</v>
       </c>
-      <c r="G33" s="9">
+      <c r="L33" s="9">
         <v>2211</v>
       </c>
-      <c r="H33" s="9">
+      <c r="M33" s="9">
         <v>3759</v>
       </c>
-      <c r="I33" s="9">
+      <c r="N33" s="9">
         <v>983</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N34" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15">
+        <v>29649</v>
+      </c>
+      <c r="F35" s="15">
+        <v>21218</v>
+      </c>
+      <c r="G35" s="15">
+        <v>22387</v>
+      </c>
+      <c r="H35" s="15">
+        <v>29577</v>
+      </c>
+      <c r="I35" s="15">
+        <v>41730</v>
+      </c>
+      <c r="J35" s="15">
         <v>46978</v>
       </c>
-      <c r="F35" s="15">
+      <c r="K35" s="15">
         <v>36431</v>
       </c>
-      <c r="G35" s="15">
+      <c r="L35" s="15">
         <v>35391</v>
       </c>
-      <c r="H35" s="15">
+      <c r="M35" s="15">
         <v>25118</v>
       </c>
-      <c r="I35" s="15">
+      <c r="N35" s="15">
         <v>22395</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1338,8 +1793,13 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1348,8 +1808,13 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1358,10 +1823,15 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -1380,8 +1850,23 @@
       <c r="I39" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L39" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1390,37 +1875,57 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9">
+        <v>2956</v>
+      </c>
+      <c r="F41" s="9">
+        <v>2201</v>
+      </c>
+      <c r="G41" s="9">
+        <v>7535</v>
+      </c>
+      <c r="H41" s="9">
+        <v>2588</v>
+      </c>
+      <c r="I41" s="9">
+        <v>6432</v>
+      </c>
+      <c r="J41" s="9">
         <v>2493</v>
       </c>
-      <c r="F41" s="9">
+      <c r="K41" s="9">
         <v>5100</v>
       </c>
-      <c r="G41" s="9">
+      <c r="L41" s="9">
         <v>1056</v>
       </c>
-      <c r="H41" s="9">
+      <c r="M41" s="9">
         <v>1518</v>
       </c>
-      <c r="I41" s="9">
+      <c r="N41" s="9">
         <v>1641</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11">
@@ -1430,134 +1935,224 @@
         <v>0</v>
       </c>
       <c r="G42" s="11">
+        <v>0</v>
+      </c>
+      <c r="H42" s="11">
+        <v>0</v>
+      </c>
+      <c r="I42" s="11">
         <v>1</v>
       </c>
-      <c r="H42" s="11">
-        <v>0</v>
-      </c>
-      <c r="I42" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="11">
+        <v>0</v>
+      </c>
+      <c r="K42" s="11">
+        <v>0</v>
+      </c>
+      <c r="L42" s="11">
+        <v>1</v>
+      </c>
+      <c r="M42" s="11">
+        <v>0</v>
+      </c>
+      <c r="N42" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9">
+        <v>3073</v>
+      </c>
+      <c r="F43" s="9">
+        <v>1162</v>
+      </c>
+      <c r="G43" s="9">
+        <v>1034</v>
+      </c>
+      <c r="H43" s="9">
+        <v>1457</v>
+      </c>
+      <c r="I43" s="9">
+        <v>2575</v>
+      </c>
+      <c r="J43" s="9">
         <v>1103</v>
       </c>
-      <c r="F43" s="9">
+      <c r="K43" s="9">
         <v>1059</v>
       </c>
-      <c r="G43" s="9">
+      <c r="L43" s="9">
         <v>3304</v>
       </c>
-      <c r="H43" s="9">
+      <c r="M43" s="9">
         <v>1079</v>
       </c>
-      <c r="I43" s="9">
+      <c r="N43" s="9">
         <v>4006</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11">
+        <v>106261</v>
+      </c>
+      <c r="F44" s="11">
+        <v>115060</v>
+      </c>
+      <c r="G44" s="11">
+        <v>106900</v>
+      </c>
+      <c r="H44" s="11">
+        <v>115048</v>
+      </c>
+      <c r="I44" s="11">
+        <v>101470</v>
+      </c>
+      <c r="J44" s="11">
         <v>101468</v>
       </c>
-      <c r="F44" s="11">
+      <c r="K44" s="11">
         <v>118889</v>
       </c>
-      <c r="G44" s="11">
+      <c r="L44" s="11">
         <v>108145</v>
       </c>
-      <c r="H44" s="11">
+      <c r="M44" s="11">
         <v>114703</v>
       </c>
-      <c r="I44" s="11">
+      <c r="N44" s="11">
         <v>109363</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9">
+        <v>35176</v>
+      </c>
+      <c r="F45" s="9">
+        <v>26954</v>
+      </c>
+      <c r="G45" s="9">
+        <v>30563</v>
+      </c>
+      <c r="H45" s="9">
+        <v>45036</v>
+      </c>
+      <c r="I45" s="9">
+        <v>47646</v>
+      </c>
+      <c r="J45" s="9">
         <v>35722</v>
       </c>
-      <c r="F45" s="9">
+      <c r="K45" s="9">
         <v>32757</v>
       </c>
-      <c r="G45" s="9">
+      <c r="L45" s="9">
         <v>40853</v>
       </c>
-      <c r="H45" s="9">
+      <c r="M45" s="9">
         <v>35207</v>
       </c>
-      <c r="I45" s="9">
+      <c r="N45" s="9">
         <v>34392</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L46" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="M46" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N46" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15">
+        <v>147466</v>
+      </c>
+      <c r="F47" s="15">
+        <v>145377</v>
+      </c>
+      <c r="G47" s="15">
+        <v>146032</v>
+      </c>
+      <c r="H47" s="15">
+        <v>164129</v>
+      </c>
+      <c r="I47" s="15">
+        <v>158124</v>
+      </c>
+      <c r="J47" s="15">
         <v>140786</v>
       </c>
-      <c r="F47" s="15">
+      <c r="K47" s="15">
         <v>157805</v>
       </c>
-      <c r="G47" s="15">
+      <c r="L47" s="15">
         <v>153359</v>
       </c>
-      <c r="H47" s="15">
+      <c r="M47" s="15">
         <v>152507</v>
       </c>
-      <c r="I47" s="15">
+      <c r="N47" s="15">
         <v>149402</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1566,8 +2161,13 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1576,8 +2176,13 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1586,10 +2191,15 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -1608,8 +2218,23 @@
       <c r="I51" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J51" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L51" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M51" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N51" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1618,37 +2243,57 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9">
+        <v>3621</v>
+      </c>
+      <c r="F53" s="9">
+        <v>1997</v>
+      </c>
+      <c r="G53" s="9">
+        <v>2846</v>
+      </c>
+      <c r="H53" s="9">
+        <v>2588</v>
+      </c>
+      <c r="I53" s="9">
+        <v>5115</v>
+      </c>
+      <c r="J53" s="9">
         <v>3109</v>
       </c>
-      <c r="F53" s="9">
+      <c r="K53" s="9">
         <v>3081</v>
       </c>
-      <c r="G53" s="9">
+      <c r="L53" s="9">
         <v>2592</v>
       </c>
-      <c r="H53" s="9">
+      <c r="M53" s="9">
         <v>4177</v>
       </c>
-      <c r="I53" s="9">
+      <c r="N53" s="9">
         <v>3715</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11">
@@ -1658,134 +2303,224 @@
         <v>0</v>
       </c>
       <c r="G54" s="11">
+        <v>0</v>
+      </c>
+      <c r="H54" s="11">
+        <v>0</v>
+      </c>
+      <c r="I54" s="11">
         <v>1</v>
       </c>
-      <c r="H54" s="11">
-        <v>0</v>
-      </c>
-      <c r="I54" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J54" s="11">
+        <v>0</v>
+      </c>
+      <c r="K54" s="11">
+        <v>0</v>
+      </c>
+      <c r="L54" s="11">
+        <v>1</v>
+      </c>
+      <c r="M54" s="11">
+        <v>0</v>
+      </c>
+      <c r="N54" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9">
+        <v>3024</v>
+      </c>
+      <c r="F55" s="9">
+        <v>2</v>
+      </c>
+      <c r="G55" s="9">
+        <v>2359</v>
+      </c>
+      <c r="H55" s="9">
+        <v>1517</v>
+      </c>
+      <c r="I55" s="9">
+        <v>2402</v>
+      </c>
+      <c r="J55" s="9">
         <v>1090</v>
       </c>
-      <c r="F55" s="9">
+      <c r="K55" s="9">
         <v>1257</v>
       </c>
-      <c r="G55" s="9">
+      <c r="L55" s="9">
         <v>2706</v>
       </c>
-      <c r="H55" s="9">
+      <c r="M55" s="9">
         <v>1736</v>
       </c>
-      <c r="I55" s="9">
+      <c r="N55" s="9">
         <v>3517</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
+        <v>114449</v>
+      </c>
+      <c r="F56" s="11">
+        <v>116596</v>
+      </c>
+      <c r="G56" s="11">
+        <v>100946</v>
+      </c>
+      <c r="H56" s="11">
+        <v>103503</v>
+      </c>
+      <c r="I56" s="11">
+        <v>99416</v>
+      </c>
+      <c r="J56" s="11">
         <v>114052</v>
       </c>
-      <c r="F56" s="11">
+      <c r="K56" s="11">
         <v>117288</v>
       </c>
-      <c r="G56" s="11">
+      <c r="L56" s="11">
         <v>119028</v>
       </c>
-      <c r="H56" s="11">
+      <c r="M56" s="11">
         <v>111332</v>
       </c>
-      <c r="I56" s="11">
+      <c r="N56" s="11">
         <v>100342</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9">
+        <v>34803</v>
+      </c>
+      <c r="F57" s="9">
+        <v>25613</v>
+      </c>
+      <c r="G57" s="9">
+        <v>32692</v>
+      </c>
+      <c r="H57" s="9">
+        <v>44368</v>
+      </c>
+      <c r="I57" s="9">
+        <v>45941</v>
+      </c>
+      <c r="J57" s="9">
         <v>33082</v>
       </c>
-      <c r="F57" s="9">
+      <c r="K57" s="9">
         <v>37222</v>
       </c>
-      <c r="G57" s="9">
+      <c r="L57" s="9">
         <v>39305</v>
       </c>
-      <c r="H57" s="9">
+      <c r="M57" s="9">
         <v>37983</v>
       </c>
-      <c r="I57" s="9">
+      <c r="N57" s="9">
         <v>32632</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K58" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L58" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="M58" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N58" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
       <c r="E59" s="15">
+        <v>155897</v>
+      </c>
+      <c r="F59" s="15">
+        <v>144208</v>
+      </c>
+      <c r="G59" s="15">
+        <v>138843</v>
+      </c>
+      <c r="H59" s="15">
+        <v>151976</v>
+      </c>
+      <c r="I59" s="15">
+        <v>152875</v>
+      </c>
+      <c r="J59" s="15">
         <v>151333</v>
       </c>
-      <c r="F59" s="15">
+      <c r="K59" s="15">
         <v>158848</v>
       </c>
-      <c r="G59" s="15">
+      <c r="L59" s="15">
         <v>163632</v>
       </c>
-      <c r="H59" s="15">
+      <c r="M59" s="15">
         <v>155228</v>
       </c>
-      <c r="I59" s="15">
+      <c r="N59" s="15">
         <v>140206</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1794,8 +2529,13 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1804,8 +2544,13 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1814,10 +2559,15 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B63" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -1836,8 +2586,23 @@
       <c r="I63" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J63" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L63" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M63" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N63" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1846,37 +2611,57 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9">
+        <v>8360</v>
+      </c>
+      <c r="F65" s="9">
+        <v>8564</v>
+      </c>
+      <c r="G65" s="9">
+        <v>13253</v>
+      </c>
+      <c r="H65" s="9">
+        <v>13254</v>
+      </c>
+      <c r="I65" s="9">
+        <v>14570</v>
+      </c>
+      <c r="J65" s="9">
         <v>13954</v>
       </c>
-      <c r="F65" s="9">
+      <c r="K65" s="9">
         <v>15974</v>
       </c>
-      <c r="G65" s="9">
+      <c r="L65" s="9">
         <v>14438</v>
       </c>
-      <c r="H65" s="9">
+      <c r="M65" s="9">
         <v>11778</v>
       </c>
-      <c r="I65" s="9">
+      <c r="N65" s="9">
         <v>9704</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
@@ -1886,134 +2671,224 @@
         <v>0</v>
       </c>
       <c r="G66" s="11">
+        <v>0</v>
+      </c>
+      <c r="H66" s="11">
+        <v>0</v>
+      </c>
+      <c r="I66" s="11">
+        <v>0</v>
+      </c>
+      <c r="J66" s="11">
+        <v>0</v>
+      </c>
+      <c r="K66" s="11">
+        <v>0</v>
+      </c>
+      <c r="L66" s="11">
         <v>1</v>
       </c>
-      <c r="H66" s="11">
-        <v>0</v>
-      </c>
-      <c r="I66" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M66" s="11">
+        <v>0</v>
+      </c>
+      <c r="N66" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9">
+        <v>353</v>
+      </c>
+      <c r="F67" s="9">
+        <v>1513</v>
+      </c>
+      <c r="G67" s="9">
+        <v>188</v>
+      </c>
+      <c r="H67" s="9">
+        <v>128</v>
+      </c>
+      <c r="I67" s="9">
+        <v>301</v>
+      </c>
+      <c r="J67" s="9">
         <v>314</v>
       </c>
-      <c r="F67" s="9">
+      <c r="K67" s="9">
         <v>116</v>
       </c>
-      <c r="G67" s="9">
+      <c r="L67" s="9">
         <v>714</v>
       </c>
-      <c r="H67" s="9">
+      <c r="M67" s="9">
         <v>57</v>
       </c>
-      <c r="I67" s="9">
+      <c r="N67" s="9">
         <v>546</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11">
+        <v>10055</v>
+      </c>
+      <c r="F68" s="11">
+        <v>8519</v>
+      </c>
+      <c r="G68" s="11">
+        <v>14473</v>
+      </c>
+      <c r="H68" s="11">
+        <v>26018</v>
+      </c>
+      <c r="I68" s="11">
+        <v>28072</v>
+      </c>
+      <c r="J68" s="11">
         <v>15488</v>
       </c>
-      <c r="F68" s="11">
+      <c r="K68" s="11">
         <v>17089</v>
       </c>
-      <c r="G68" s="11">
+      <c r="L68" s="11">
         <v>6206</v>
       </c>
-      <c r="H68" s="11">
+      <c r="M68" s="11">
         <v>9577</v>
       </c>
-      <c r="I68" s="11">
+      <c r="N68" s="11">
         <v>18598</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9">
+        <v>2450</v>
+      </c>
+      <c r="F69" s="9">
+        <v>3791</v>
+      </c>
+      <c r="G69" s="9">
+        <v>1662</v>
+      </c>
+      <c r="H69" s="9">
+        <v>2330</v>
+      </c>
+      <c r="I69" s="9">
+        <v>4035</v>
+      </c>
+      <c r="J69" s="9">
         <v>6675</v>
       </c>
-      <c r="F69" s="9">
+      <c r="K69" s="9">
         <v>2210</v>
       </c>
-      <c r="G69" s="9">
+      <c r="L69" s="9">
         <v>3759</v>
       </c>
-      <c r="H69" s="9">
+      <c r="M69" s="9">
         <v>983</v>
       </c>
-      <c r="I69" s="9">
+      <c r="N69" s="9">
         <v>2743</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C70" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="J70" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K70" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L70" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="M70" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N70" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
       <c r="E71" s="15">
+        <v>21218</v>
+      </c>
+      <c r="F71" s="15">
+        <v>22387</v>
+      </c>
+      <c r="G71" s="15">
+        <v>29576</v>
+      </c>
+      <c r="H71" s="15">
+        <v>41730</v>
+      </c>
+      <c r="I71" s="15">
+        <v>46978</v>
+      </c>
+      <c r="J71" s="15">
         <v>36431</v>
       </c>
-      <c r="F71" s="15">
+      <c r="K71" s="15">
         <v>35389</v>
       </c>
-      <c r="G71" s="15">
+      <c r="L71" s="15">
         <v>25118</v>
       </c>
-      <c r="H71" s="15">
+      <c r="M71" s="15">
         <v>22395</v>
       </c>
-      <c r="I71" s="15">
+      <c r="N71" s="15">
         <v>31591</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2022,8 +2897,13 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2032,8 +2912,13 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2042,10 +2927,15 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-    </row>
-    <row r="75" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+    </row>
+    <row r="75" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B75" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -2064,8 +2954,23 @@
       <c r="I75" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J75" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L75" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M75" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N75" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2074,174 +2979,284 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9">
+        <v>2715710</v>
+      </c>
+      <c r="F77" s="9">
+        <v>2619572</v>
+      </c>
+      <c r="G77" s="9">
+        <v>3019220</v>
+      </c>
+      <c r="H77" s="9">
+        <v>4874211</v>
+      </c>
+      <c r="I77" s="9">
+        <v>4874211</v>
+      </c>
+      <c r="J77" s="9">
         <v>8268515</v>
       </c>
-      <c r="F77" s="9">
+      <c r="K77" s="9">
         <v>8080120</v>
       </c>
-      <c r="G77" s="9">
+      <c r="L77" s="9">
         <v>8522587</v>
       </c>
-      <c r="H77" s="9">
+      <c r="M77" s="9">
         <v>8172249</v>
       </c>
-      <c r="I77" s="9">
+      <c r="N77" s="9">
         <v>6476432</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11">
+        <v>416324</v>
+      </c>
+      <c r="F78" s="11">
+        <v>466635</v>
+      </c>
+      <c r="G78" s="11">
+        <v>737648</v>
+      </c>
+      <c r="H78" s="11">
+        <v>797146</v>
+      </c>
+      <c r="I78" s="11">
+        <v>797146</v>
+      </c>
+      <c r="J78" s="11">
         <v>774211</v>
       </c>
-      <c r="F78" s="11">
+      <c r="K78" s="11">
         <v>827452</v>
       </c>
-      <c r="G78" s="11">
+      <c r="L78" s="11">
         <v>910072</v>
       </c>
-      <c r="H78" s="11">
+      <c r="M78" s="11">
         <v>475915</v>
       </c>
-      <c r="I78" s="11">
+      <c r="N78" s="11">
         <v>591887</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9">
+        <v>12920</v>
+      </c>
+      <c r="F79" s="9">
+        <v>19096</v>
+      </c>
+      <c r="G79" s="9">
+        <v>91434</v>
+      </c>
+      <c r="H79" s="9">
+        <v>15230</v>
+      </c>
+      <c r="I79" s="9">
+        <v>10375</v>
+      </c>
+      <c r="J79" s="9">
         <v>33401</v>
       </c>
-      <c r="F79" s="9">
+      <c r="K79" s="9">
         <v>37430</v>
       </c>
-      <c r="G79" s="9">
+      <c r="L79" s="9">
         <v>14234</v>
       </c>
-      <c r="H79" s="9">
+      <c r="M79" s="9">
         <v>103208</v>
       </c>
-      <c r="I79" s="9">
+      <c r="N79" s="9">
         <v>9300</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11">
+        <v>519656</v>
+      </c>
+      <c r="F80" s="11">
+        <v>403837</v>
+      </c>
+      <c r="G80" s="11">
+        <v>495890</v>
+      </c>
+      <c r="H80" s="11">
+        <v>1189776</v>
+      </c>
+      <c r="I80" s="11">
+        <v>2233201</v>
+      </c>
+      <c r="J80" s="11">
         <v>2600667</v>
       </c>
-      <c r="F80" s="11">
+      <c r="K80" s="11">
         <v>1682084</v>
       </c>
-      <c r="G80" s="11">
+      <c r="L80" s="11">
         <v>1961411</v>
       </c>
-      <c r="H80" s="11">
+      <c r="M80" s="11">
         <v>932555</v>
       </c>
-      <c r="I80" s="11">
+      <c r="N80" s="11">
         <v>1238632</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9">
+        <v>54335</v>
+      </c>
+      <c r="F81" s="9">
+        <v>88458</v>
+      </c>
+      <c r="G81" s="9">
+        <v>169710</v>
+      </c>
+      <c r="H81" s="9">
+        <v>102207</v>
+      </c>
+      <c r="I81" s="9">
+        <v>148884</v>
+      </c>
+      <c r="J81" s="9">
         <v>270477</v>
       </c>
-      <c r="F81" s="9">
+      <c r="K81" s="9">
         <v>606867</v>
       </c>
-      <c r="G81" s="9">
+      <c r="L81" s="9">
         <v>223879</v>
       </c>
-      <c r="H81" s="9">
+      <c r="M81" s="9">
         <v>409118</v>
       </c>
-      <c r="I81" s="9">
+      <c r="N81" s="9">
         <v>86979</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="J82" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K82" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L82" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="M82" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N82" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C83" s="15"/>
       <c r="D83" s="15"/>
       <c r="E83" s="15">
+        <v>3718945</v>
+      </c>
+      <c r="F83" s="15">
+        <v>3597598</v>
+      </c>
+      <c r="G83" s="15">
+        <v>4513902</v>
+      </c>
+      <c r="H83" s="15">
+        <v>6978570</v>
+      </c>
+      <c r="I83" s="15">
+        <v>8063817</v>
+      </c>
+      <c r="J83" s="15">
         <v>11947271</v>
       </c>
-      <c r="F83" s="15">
+      <c r="K83" s="15">
         <v>11233953</v>
       </c>
-      <c r="G83" s="15">
+      <c r="L83" s="15">
         <v>11632183</v>
       </c>
-      <c r="H83" s="15">
+      <c r="M83" s="15">
         <v>10093045</v>
       </c>
-      <c r="I83" s="15">
+      <c r="N83" s="15">
         <v>8403230</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2250,8 +3265,13 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2260,8 +3280,13 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2270,10 +3295,15 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-    </row>
-    <row r="87" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+    </row>
+    <row r="87" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B87" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -2292,8 +3322,23 @@
       <c r="I87" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J87" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K87" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L87" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M87" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N87" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2302,174 +3347,284 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9">
+        <v>1070144</v>
+      </c>
+      <c r="F89" s="9">
+        <v>1048764</v>
+      </c>
+      <c r="G89" s="9">
+        <v>3104834</v>
+      </c>
+      <c r="H89" s="9">
+        <v>1240648</v>
+      </c>
+      <c r="I89" s="9">
+        <v>5707117</v>
+      </c>
+      <c r="J89" s="9">
         <v>1751343</v>
       </c>
-      <c r="F89" s="9">
+      <c r="K89" s="9">
         <v>2214633</v>
       </c>
-      <c r="G89" s="9">
+      <c r="L89" s="9">
         <v>1078142</v>
       </c>
-      <c r="H89" s="9">
+      <c r="M89" s="9">
         <v>561992</v>
       </c>
-      <c r="I89" s="9">
+      <c r="N89" s="9">
         <v>1506754</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11">
+        <v>796851</v>
+      </c>
+      <c r="F90" s="11">
+        <v>801095</v>
+      </c>
+      <c r="G90" s="11">
+        <v>936945</v>
+      </c>
+      <c r="H90" s="11">
+        <v>787983</v>
+      </c>
+      <c r="I90" s="11">
+        <v>1277107</v>
+      </c>
+      <c r="J90" s="11">
         <v>1731536</v>
       </c>
-      <c r="F90" s="11">
+      <c r="K90" s="11">
         <v>845351</v>
       </c>
-      <c r="G90" s="11">
+      <c r="L90" s="11">
         <v>454384</v>
       </c>
-      <c r="H90" s="11">
+      <c r="M90" s="11">
         <v>1570515</v>
       </c>
-      <c r="I90" s="11">
+      <c r="N90" s="11">
         <v>1470575</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9">
+        <v>156543</v>
+      </c>
+      <c r="F91" s="9">
+        <v>72338</v>
+      </c>
+      <c r="G91" s="9">
+        <v>109461</v>
+      </c>
+      <c r="H91" s="9">
+        <v>149401</v>
+      </c>
+      <c r="I91" s="9">
+        <v>282581</v>
+      </c>
+      <c r="J91" s="9">
         <v>139688</v>
       </c>
-      <c r="F91" s="9">
+      <c r="K91" s="9">
         <v>131119</v>
       </c>
-      <c r="G91" s="9">
+      <c r="L91" s="9">
         <v>455376</v>
       </c>
-      <c r="H91" s="9">
+      <c r="M91" s="9">
         <v>172149</v>
       </c>
-      <c r="I91" s="9">
+      <c r="N91" s="9">
         <v>587897</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11">
+        <v>3820228</v>
+      </c>
+      <c r="F92" s="11">
+        <v>6530872</v>
+      </c>
+      <c r="G92" s="11">
+        <v>8530424</v>
+      </c>
+      <c r="H92" s="11">
+        <v>10026370</v>
+      </c>
+      <c r="I92" s="11">
+        <v>9282242</v>
+      </c>
+      <c r="J92" s="11">
         <v>11340079</v>
       </c>
-      <c r="F92" s="11">
+      <c r="K92" s="11">
         <v>12887649</v>
       </c>
-      <c r="G92" s="11">
+      <c r="L92" s="11">
         <v>16742545</v>
       </c>
-      <c r="H92" s="11">
+      <c r="M92" s="11">
         <v>16553342</v>
       </c>
-      <c r="I92" s="11">
+      <c r="N92" s="11">
         <v>12105108</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9">
+        <v>1195183</v>
+      </c>
+      <c r="F93" s="9">
+        <v>1154496</v>
+      </c>
+      <c r="G93" s="9">
+        <v>1910384</v>
+      </c>
+      <c r="H93" s="9">
+        <v>2813192</v>
+      </c>
+      <c r="I93" s="9">
+        <v>3091273</v>
+      </c>
+      <c r="J93" s="9">
         <v>3188360</v>
       </c>
-      <c r="F93" s="9">
+      <c r="K93" s="9">
         <v>3104816</v>
       </c>
-      <c r="G93" s="9">
+      <c r="L93" s="9">
         <v>4393612</v>
       </c>
-      <c r="H93" s="9">
+      <c r="M93" s="9">
         <v>3601671</v>
       </c>
-      <c r="I93" s="9">
+      <c r="N93" s="9">
         <v>3466913</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H94" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I94" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="J94" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K94" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L94" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="M94" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N94" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C95" s="15"/>
       <c r="D95" s="15"/>
       <c r="E95" s="15">
+        <v>7038949</v>
+      </c>
+      <c r="F95" s="15">
+        <v>9607565</v>
+      </c>
+      <c r="G95" s="15">
+        <v>14592048</v>
+      </c>
+      <c r="H95" s="15">
+        <v>15017594</v>
+      </c>
+      <c r="I95" s="15">
+        <v>19640320</v>
+      </c>
+      <c r="J95" s="15">
         <v>18151006</v>
       </c>
-      <c r="F95" s="15">
+      <c r="K95" s="15">
         <v>19183568</v>
       </c>
-      <c r="G95" s="15">
+      <c r="L95" s="15">
         <v>23124059</v>
       </c>
-      <c r="H95" s="15">
+      <c r="M95" s="15">
         <v>22459669</v>
       </c>
-      <c r="I95" s="15">
+      <c r="N95" s="15">
         <v>19137247</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2478,8 +3633,13 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -2488,8 +3648,13 @@
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2498,10 +3663,15 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+    </row>
+    <row r="99" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B99" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
@@ -2520,8 +3690,23 @@
       <c r="I99" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J99" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K99" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L99" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M99" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N99" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2530,174 +3715,284 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9">
+        <v>1166282</v>
+      </c>
+      <c r="F101" s="9">
+        <v>649116</v>
+      </c>
+      <c r="G101" s="9">
+        <v>1249844</v>
+      </c>
+      <c r="H101" s="9">
+        <v>1240648</v>
+      </c>
+      <c r="I101" s="9">
+        <v>2312813</v>
+      </c>
+      <c r="J101" s="9">
         <v>1939738</v>
       </c>
-      <c r="F101" s="9">
+      <c r="K101" s="9">
         <v>1772166</v>
       </c>
-      <c r="G101" s="9">
+      <c r="L101" s="9">
         <v>1428480</v>
       </c>
-      <c r="H101" s="9">
+      <c r="M101" s="9">
         <v>2257808</v>
       </c>
-      <c r="I101" s="9">
+      <c r="N101" s="9">
         <v>2234009</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
+        <v>746540</v>
+      </c>
+      <c r="F102" s="11">
+        <v>530082</v>
+      </c>
+      <c r="G102" s="11">
+        <v>877447</v>
+      </c>
+      <c r="H102" s="11">
+        <v>787983</v>
+      </c>
+      <c r="I102" s="11">
+        <v>1300042</v>
+      </c>
+      <c r="J102" s="11">
         <v>1678295</v>
       </c>
-      <c r="F102" s="11">
+      <c r="K102" s="11">
         <v>762731</v>
       </c>
-      <c r="G102" s="11">
+      <c r="L102" s="11">
         <v>888541</v>
       </c>
-      <c r="H102" s="11">
+      <c r="M102" s="11">
         <v>1454543</v>
       </c>
-      <c r="I102" s="11">
+      <c r="N102" s="11">
         <v>1470575</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9">
+        <v>150367</v>
+      </c>
+      <c r="F103" s="9">
+        <v>0</v>
+      </c>
+      <c r="G103" s="9">
+        <v>185665</v>
+      </c>
+      <c r="H103" s="9">
+        <v>154256</v>
+      </c>
+      <c r="I103" s="9">
+        <v>259555</v>
+      </c>
+      <c r="J103" s="9">
         <v>135659</v>
       </c>
-      <c r="F103" s="9">
+      <c r="K103" s="9">
         <v>154315</v>
       </c>
-      <c r="G103" s="9">
+      <c r="L103" s="9">
         <v>366402</v>
       </c>
-      <c r="H103" s="9">
+      <c r="M103" s="9">
         <v>266057</v>
       </c>
-      <c r="I103" s="9">
+      <c r="N103" s="9">
         <v>515220</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11">
+        <v>3936047</v>
+      </c>
+      <c r="F104" s="11">
+        <v>6438819</v>
+      </c>
+      <c r="G104" s="11">
+        <v>7836538</v>
+      </c>
+      <c r="H104" s="11">
+        <v>8982945</v>
+      </c>
+      <c r="I104" s="11">
+        <v>8914777</v>
+      </c>
+      <c r="J104" s="11">
         <v>12258661</v>
       </c>
-      <c r="F104" s="11">
+      <c r="K104" s="11">
         <v>12608322</v>
       </c>
-      <c r="G104" s="11">
+      <c r="L104" s="11">
         <v>17771401</v>
       </c>
-      <c r="H104" s="11">
+      <c r="M104" s="11">
         <v>16247265</v>
       </c>
-      <c r="I104" s="11">
+      <c r="N104" s="11">
         <v>11180156</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9">
+        <v>1161060</v>
+      </c>
+      <c r="F105" s="9">
+        <v>1073244</v>
+      </c>
+      <c r="G105" s="9">
+        <v>1977887</v>
+      </c>
+      <c r="H105" s="9">
+        <v>2766515</v>
+      </c>
+      <c r="I105" s="9">
+        <v>2969680</v>
+      </c>
+      <c r="J105" s="9">
         <v>2851970</v>
       </c>
-      <c r="F105" s="9">
+      <c r="K105" s="9">
         <v>3487804</v>
       </c>
-      <c r="G105" s="9">
+      <c r="L105" s="9">
         <v>4208373</v>
       </c>
-      <c r="H105" s="9">
+      <c r="M105" s="9">
         <v>3923811</v>
       </c>
-      <c r="I105" s="9">
+      <c r="N105" s="9">
         <v>3252172</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D106" s="11"/>
       <c r="E106" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H106" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I106" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="J106" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K106" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L106" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="M106" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N106" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15">
+        <v>7160296</v>
+      </c>
+      <c r="F107" s="15">
+        <v>8691261</v>
+      </c>
+      <c r="G107" s="15">
+        <v>12127381</v>
+      </c>
+      <c r="H107" s="15">
+        <v>13932347</v>
+      </c>
+      <c r="I107" s="15">
+        <v>15756867</v>
+      </c>
+      <c r="J107" s="15">
         <v>18864323</v>
       </c>
-      <c r="F107" s="15">
+      <c r="K107" s="15">
         <v>18785338</v>
       </c>
-      <c r="G107" s="15">
+      <c r="L107" s="15">
         <v>24663197</v>
       </c>
-      <c r="H107" s="15">
+      <c r="M107" s="15">
         <v>24149484</v>
       </c>
-      <c r="I107" s="15">
+      <c r="N107" s="15">
         <v>18652132</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2706,8 +4001,13 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2716,8 +4016,13 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2726,10 +4031,15 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
-    </row>
-    <row r="111" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+    </row>
+    <row r="111" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B111" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -2748,8 +4058,23 @@
       <c r="I111" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J111" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K111" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L111" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M111" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N111" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2758,174 +4083,284 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9">
+        <v>2619572</v>
+      </c>
+      <c r="F113" s="9">
+        <v>3019220</v>
+      </c>
+      <c r="G113" s="9">
+        <v>4874210</v>
+      </c>
+      <c r="H113" s="9">
+        <v>4874211</v>
+      </c>
+      <c r="I113" s="9">
+        <v>8268515</v>
+      </c>
+      <c r="J113" s="9">
         <v>8080120</v>
       </c>
-      <c r="F113" s="9">
+      <c r="K113" s="9">
         <v>8522587</v>
       </c>
-      <c r="G113" s="9">
+      <c r="L113" s="9">
         <v>8172249</v>
       </c>
-      <c r="H113" s="9">
+      <c r="M113" s="9">
         <v>6476432</v>
       </c>
-      <c r="I113" s="9">
+      <c r="N113" s="9">
         <v>5749177</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="11">
+        <v>466635</v>
+      </c>
+      <c r="F114" s="11">
+        <v>737648</v>
+      </c>
+      <c r="G114" s="11">
+        <v>797146</v>
+      </c>
+      <c r="H114" s="11">
+        <v>797146</v>
+      </c>
+      <c r="I114" s="11">
+        <v>774211</v>
+      </c>
+      <c r="J114" s="11">
         <v>827452</v>
       </c>
-      <c r="F114" s="11">
+      <c r="K114" s="11">
         <v>910072</v>
       </c>
-      <c r="G114" s="11">
+      <c r="L114" s="11">
         <v>475915</v>
       </c>
-      <c r="H114" s="11">
+      <c r="M114" s="11">
         <v>591887</v>
       </c>
-      <c r="I114" s="11">
+      <c r="N114" s="11">
         <v>591887</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="9">
+        <v>19096</v>
+      </c>
+      <c r="F115" s="9">
+        <v>91434</v>
+      </c>
+      <c r="G115" s="9">
+        <v>15230</v>
+      </c>
+      <c r="H115" s="9">
+        <v>10375</v>
+      </c>
+      <c r="I115" s="9">
+        <v>33401</v>
+      </c>
+      <c r="J115" s="9">
         <v>37430</v>
       </c>
-      <c r="F115" s="9">
+      <c r="K115" s="9">
         <v>14234</v>
       </c>
-      <c r="G115" s="9">
+      <c r="L115" s="9">
         <v>103208</v>
       </c>
-      <c r="H115" s="9">
+      <c r="M115" s="9">
         <v>9300</v>
       </c>
-      <c r="I115" s="9">
+      <c r="N115" s="9">
         <v>81977</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="11">
+        <v>403837</v>
+      </c>
+      <c r="F116" s="11">
+        <v>495890</v>
+      </c>
+      <c r="G116" s="11">
+        <v>1189776</v>
+      </c>
+      <c r="H116" s="11">
+        <v>2233201</v>
+      </c>
+      <c r="I116" s="11">
+        <v>2600666</v>
+      </c>
+      <c r="J116" s="11">
         <v>1682084</v>
       </c>
-      <c r="F116" s="11">
+      <c r="K116" s="11">
         <v>1961411</v>
       </c>
-      <c r="G116" s="11">
+      <c r="L116" s="11">
         <v>932555</v>
       </c>
-      <c r="H116" s="11">
+      <c r="M116" s="11">
         <v>1238632</v>
       </c>
-      <c r="I116" s="11">
+      <c r="N116" s="11">
         <v>2163584</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9">
+        <v>88458</v>
+      </c>
+      <c r="F117" s="9">
+        <v>169710</v>
+      </c>
+      <c r="G117" s="9">
+        <v>102207</v>
+      </c>
+      <c r="H117" s="9">
+        <v>148884</v>
+      </c>
+      <c r="I117" s="9">
+        <v>270477</v>
+      </c>
+      <c r="J117" s="9">
         <v>606867</v>
       </c>
-      <c r="F117" s="9">
+      <c r="K117" s="9">
         <v>223879</v>
       </c>
-      <c r="G117" s="9">
+      <c r="L117" s="9">
         <v>409118</v>
       </c>
-      <c r="H117" s="9">
+      <c r="M117" s="9">
         <v>86979</v>
       </c>
-      <c r="I117" s="9">
+      <c r="N117" s="9">
         <v>301720</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F118" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G118" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H118" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I118" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="J118" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K118" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L118" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="M118" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N118" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C119" s="15"/>
       <c r="D119" s="15"/>
       <c r="E119" s="15">
+        <v>3597598</v>
+      </c>
+      <c r="F119" s="15">
+        <v>4513902</v>
+      </c>
+      <c r="G119" s="15">
+        <v>6978569</v>
+      </c>
+      <c r="H119" s="15">
+        <v>8063817</v>
+      </c>
+      <c r="I119" s="15">
+        <v>11947270</v>
+      </c>
+      <c r="J119" s="15">
         <v>11233953</v>
       </c>
-      <c r="F119" s="15">
+      <c r="K119" s="15">
         <v>11632183</v>
       </c>
-      <c r="G119" s="15">
+      <c r="L119" s="15">
         <v>10093045</v>
       </c>
-      <c r="H119" s="15">
+      <c r="M119" s="15">
         <v>8403230</v>
       </c>
-      <c r="I119" s="15">
+      <c r="N119" s="15">
         <v>8888345</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -2934,8 +4369,13 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -2944,8 +4384,13 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -2954,10 +4399,15 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
-    </row>
-    <row r="123" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+    </row>
+    <row r="123" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B123" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
@@ -2976,8 +4426,23 @@
       <c r="I123" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J123" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K123" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L123" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M123" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N123" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -2986,128 +4451,208 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D125" s="9"/>
       <c r="E125" s="9">
+        <v>300909695</v>
+      </c>
+      <c r="F125" s="9">
+        <v>313345933</v>
+      </c>
+      <c r="G125" s="9">
+        <v>352547875</v>
+      </c>
+      <c r="H125" s="9">
+        <v>367753961</v>
+      </c>
+      <c r="I125" s="9">
+        <v>367753961</v>
+      </c>
+      <c r="J125" s="9">
         <v>567502745</v>
       </c>
-      <c r="F125" s="9">
+      <c r="K125" s="9">
         <v>579054035</v>
       </c>
-      <c r="G125" s="9">
+      <c r="L125" s="9">
         <v>533528672</v>
       </c>
-      <c r="H125" s="9">
+      <c r="M125" s="9">
         <v>566023618</v>
       </c>
-      <c r="I125" s="9">
+      <c r="N125" s="9">
         <v>549875361</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D126" s="11"/>
       <c r="E126" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F126" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G126" s="11">
+        <v>36</v>
+      </c>
+      <c r="G126" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H126" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I126" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J126" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K126" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L126" s="11">
         <v>910072000000</v>
       </c>
-      <c r="H126" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I126" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M126" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N126" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9">
+        <v>42500000</v>
+      </c>
+      <c r="F127" s="9">
+        <v>54096317</v>
+      </c>
+      <c r="G127" s="9">
+        <v>60432254</v>
+      </c>
+      <c r="H127" s="9">
+        <v>81010638</v>
+      </c>
+      <c r="I127" s="9">
+        <v>81054688</v>
+      </c>
+      <c r="J127" s="9">
         <v>110966777</v>
       </c>
-      <c r="F127" s="9">
+      <c r="K127" s="9">
         <v>119203822</v>
       </c>
-      <c r="G127" s="9">
+      <c r="L127" s="9">
         <v>122706897</v>
       </c>
-      <c r="H127" s="9">
+      <c r="M127" s="9">
         <v>144549020</v>
       </c>
-      <c r="I127" s="9">
+      <c r="N127" s="9">
         <v>163157895</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="11">
+        <v>28485227</v>
+      </c>
+      <c r="F128" s="11">
+        <v>40162805</v>
+      </c>
+      <c r="G128" s="11">
+        <v>58209884</v>
+      </c>
+      <c r="H128" s="11">
+        <v>82206592</v>
+      </c>
+      <c r="I128" s="11">
+        <v>85832923</v>
+      </c>
+      <c r="J128" s="11">
         <v>92642704</v>
       </c>
-      <c r="F128" s="11">
+      <c r="K128" s="11">
         <v>108605630</v>
       </c>
-      <c r="G128" s="11">
+      <c r="L128" s="11">
         <v>114776230</v>
       </c>
-      <c r="H128" s="11">
+      <c r="M128" s="11">
         <v>150266677</v>
       </c>
-      <c r="I128" s="11">
+      <c r="N128" s="11">
         <v>129334029</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D129" s="9"/>
       <c r="E129" s="9">
+        <v>26160327</v>
+      </c>
+      <c r="F129" s="9">
+        <v>36105306</v>
+      </c>
+      <c r="G129" s="9">
+        <v>44766552</v>
+      </c>
+      <c r="H129" s="9">
+        <v>61496390</v>
+      </c>
+      <c r="I129" s="9">
+        <v>63898712</v>
+      </c>
+      <c r="J129" s="9">
         <v>67032714</v>
       </c>
-      <c r="F129" s="9">
+      <c r="K129" s="9">
         <v>90916404</v>
       </c>
-      <c r="G129" s="9">
+      <c r="L129" s="9">
         <v>101256897</v>
       </c>
-      <c r="H129" s="9">
+      <c r="M129" s="9">
         <v>108836925</v>
       </c>
-      <c r="I129" s="9">
+      <c r="N129" s="9">
         <v>88483215</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -3116,8 +4661,13 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -3126,8 +4676,13 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+      <c r="N131" s="1"/>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3136,10 +4691,15 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
-    </row>
-    <row r="133" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+    </row>
+    <row r="133" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B133" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
@@ -3158,8 +4718,23 @@
       <c r="I133" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J133" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K133" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L133" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M133" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N133" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -3168,128 +4743,208 @@
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+      <c r="N134" s="1"/>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9">
+        <v>362024357</v>
+      </c>
+      <c r="F135" s="9">
+        <v>476494321</v>
+      </c>
+      <c r="G135" s="9">
+        <v>412054944</v>
+      </c>
+      <c r="H135" s="9">
+        <v>479384853</v>
+      </c>
+      <c r="I135" s="9">
+        <v>887300529</v>
+      </c>
+      <c r="J135" s="9">
         <v>702504212</v>
       </c>
-      <c r="F135" s="9">
+      <c r="K135" s="9">
         <v>434241765</v>
       </c>
-      <c r="G135" s="9">
+      <c r="L135" s="9">
         <v>1020967803</v>
       </c>
-      <c r="H135" s="9">
+      <c r="M135" s="9">
         <v>370218709</v>
       </c>
-      <c r="I135" s="9">
+      <c r="N135" s="9">
         <v>918192566</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D136" s="11"/>
       <c r="E136" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F136" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G136" s="11">
+        <v>36</v>
+      </c>
+      <c r="G136" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H136" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I136" s="11">
+        <v>1277107000000</v>
+      </c>
+      <c r="J136" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K136" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L136" s="11">
         <v>454384000000</v>
       </c>
-      <c r="H136" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I136" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M136" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N136" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9">
+        <v>50941425</v>
+      </c>
+      <c r="F137" s="9">
+        <v>62253012</v>
+      </c>
+      <c r="G137" s="9">
+        <v>105861702</v>
+      </c>
+      <c r="H137" s="9">
+        <v>102540151</v>
+      </c>
+      <c r="I137" s="9">
+        <v>109740194</v>
+      </c>
+      <c r="J137" s="9">
         <v>126643699</v>
       </c>
-      <c r="F137" s="9">
+      <c r="K137" s="9">
         <v>123813975</v>
       </c>
-      <c r="G137" s="9">
+      <c r="L137" s="9">
         <v>137825666</v>
       </c>
-      <c r="H137" s="9">
+      <c r="M137" s="9">
         <v>159544949</v>
       </c>
-      <c r="I137" s="9">
+      <c r="N137" s="9">
         <v>146754119</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="11">
+        <v>35951365</v>
+      </c>
+      <c r="F138" s="11">
+        <v>56760577</v>
+      </c>
+      <c r="G138" s="11">
+        <v>79798167</v>
+      </c>
+      <c r="H138" s="11">
+        <v>87149451</v>
+      </c>
+      <c r="I138" s="11">
+        <v>91477698</v>
+      </c>
+      <c r="J138" s="11">
         <v>111760151</v>
       </c>
-      <c r="F138" s="11">
+      <c r="K138" s="11">
         <v>108400685</v>
       </c>
-      <c r="G138" s="11">
+      <c r="L138" s="11">
         <v>154815710</v>
       </c>
-      <c r="H138" s="11">
+      <c r="M138" s="11">
         <v>144314813</v>
       </c>
-      <c r="I138" s="11">
+      <c r="N138" s="11">
         <v>110687417</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9">
+        <v>33977229</v>
+      </c>
+      <c r="F139" s="9">
+        <v>42832084</v>
+      </c>
+      <c r="G139" s="9">
+        <v>62506429</v>
+      </c>
+      <c r="H139" s="9">
+        <v>62465405</v>
+      </c>
+      <c r="I139" s="9">
+        <v>64880011</v>
+      </c>
+      <c r="J139" s="9">
         <v>89254801</v>
       </c>
-      <c r="F139" s="9">
+      <c r="K139" s="9">
         <v>94783283</v>
       </c>
-      <c r="G139" s="9">
+      <c r="L139" s="9">
         <v>107546863</v>
       </c>
-      <c r="H139" s="9">
+      <c r="M139" s="9">
         <v>102299855</v>
       </c>
-      <c r="I139" s="9">
+      <c r="N139" s="9">
         <v>100805798</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3298,8 +4953,13 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+      <c r="N140" s="1"/>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -3308,8 +4968,13 @@
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J141" s="1"/>
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1"/>
+      <c r="N141" s="1"/>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -3318,10 +4983,15 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
-    </row>
-    <row r="143" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+      <c r="N142" s="1"/>
+    </row>
+    <row r="143" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B143" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
@@ -3340,8 +5010,23 @@
       <c r="I143" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J143" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K143" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L143" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M143" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N143" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -3350,128 +5035,208 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+      <c r="N144" s="1"/>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D145" s="9"/>
       <c r="E145" s="9">
+        <v>322088373</v>
+      </c>
+      <c r="F145" s="9">
+        <v>325045568</v>
+      </c>
+      <c r="G145" s="9">
+        <v>439158117</v>
+      </c>
+      <c r="H145" s="9">
+        <v>479384853</v>
+      </c>
+      <c r="I145" s="9">
+        <v>452162854</v>
+      </c>
+      <c r="J145" s="9">
         <v>623910582</v>
       </c>
-      <c r="F145" s="9">
+      <c r="K145" s="9">
         <v>575191821</v>
       </c>
-      <c r="G145" s="9">
+      <c r="L145" s="9">
         <v>551111111</v>
       </c>
-      <c r="H145" s="9">
+      <c r="M145" s="9">
         <v>540533397</v>
       </c>
-      <c r="I145" s="9">
+      <c r="N145" s="9">
         <v>601348318</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D146" s="11"/>
       <c r="E146" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F146" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G146" s="11">
+        <v>36</v>
+      </c>
+      <c r="G146" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H146" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I146" s="11">
+        <v>1300042000000</v>
+      </c>
+      <c r="J146" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K146" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L146" s="11">
         <v>888541000000</v>
       </c>
-      <c r="H146" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I146" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M146" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N146" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D147" s="9"/>
       <c r="E147" s="9">
+        <v>49724537</v>
+      </c>
+      <c r="F147" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G147" s="9">
+        <v>78704960</v>
+      </c>
+      <c r="H147" s="9">
+        <v>101684904</v>
+      </c>
+      <c r="I147" s="9">
+        <v>108057868</v>
+      </c>
+      <c r="J147" s="9">
         <v>124457798</v>
       </c>
-      <c r="F147" s="9">
+      <c r="K147" s="9">
         <v>122764519</v>
       </c>
-      <c r="G147" s="9">
+      <c r="L147" s="9">
         <v>135403548</v>
       </c>
-      <c r="H147" s="9">
+      <c r="M147" s="9">
         <v>153258641</v>
       </c>
-      <c r="I147" s="9">
+      <c r="N147" s="9">
         <v>146494171</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C148" s="11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D148" s="11"/>
       <c r="E148" s="11">
+        <v>34391275</v>
+      </c>
+      <c r="F148" s="11">
+        <v>55223327</v>
+      </c>
+      <c r="G148" s="11">
+        <v>77630991</v>
+      </c>
+      <c r="H148" s="11">
+        <v>86789224</v>
+      </c>
+      <c r="I148" s="11">
+        <v>89671451</v>
+      </c>
+      <c r="J148" s="11">
         <v>107483087</v>
       </c>
-      <c r="F148" s="11">
+      <c r="K148" s="11">
         <v>107498823</v>
       </c>
-      <c r="G148" s="11">
+      <c r="L148" s="11">
         <v>149304374</v>
       </c>
-      <c r="H148" s="11">
+      <c r="M148" s="11">
         <v>145935266</v>
       </c>
-      <c r="I148" s="11">
+      <c r="N148" s="11">
         <v>111420502</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D149" s="9"/>
       <c r="E149" s="9">
+        <v>33360917</v>
+      </c>
+      <c r="F149" s="9">
+        <v>41902315</v>
+      </c>
+      <c r="G149" s="9">
+        <v>60500642</v>
+      </c>
+      <c r="H149" s="9">
+        <v>62353836</v>
+      </c>
+      <c r="I149" s="9">
+        <v>64641170</v>
+      </c>
+      <c r="J149" s="9">
         <v>86209117</v>
       </c>
-      <c r="F149" s="9">
+      <c r="K149" s="9">
         <v>93702756</v>
       </c>
-      <c r="G149" s="9">
+      <c r="L149" s="9">
         <v>107069660</v>
       </c>
-      <c r="H149" s="9">
+      <c r="M149" s="9">
         <v>103304399</v>
       </c>
-      <c r="I149" s="9">
+      <c r="N149" s="9">
         <v>99662050</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -3480,8 +5245,13 @@
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+      <c r="N150" s="1"/>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -3490,8 +5260,13 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+      <c r="N151" s="1"/>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3500,10 +5275,15 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
-    </row>
-    <row r="153" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+      <c r="N152" s="1"/>
+    </row>
+    <row r="153" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B153" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
@@ -3522,8 +5302,23 @@
       <c r="I153" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J153" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K153" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L153" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M153" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N153" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -3532,128 +5327,208 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
-    </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J154" s="1"/>
+      <c r="K154" s="1"/>
+      <c r="L154" s="1"/>
+      <c r="M154" s="1"/>
+      <c r="N154" s="1"/>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B155" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D155" s="9"/>
-      <c r="E155" s="9">
+      <c r="E155" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F155" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G155" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H155" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I155" s="9">
+        <v>567502745</v>
+      </c>
+      <c r="J155" s="9">
         <v>579054035</v>
       </c>
-      <c r="F155" s="9">
+      <c r="K155" s="9">
         <v>533528672</v>
       </c>
-      <c r="G155" s="9">
+      <c r="L155" s="9">
         <v>566023618</v>
       </c>
-      <c r="H155" s="9">
+      <c r="M155" s="9">
         <v>549875361</v>
       </c>
-      <c r="I155" s="9">
+      <c r="N155" s="9">
         <v>592454349</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156" s="10" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D156" s="11"/>
       <c r="E156" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F156" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G156" s="11">
+        <v>36</v>
+      </c>
+      <c r="G156" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H156" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I156" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J156" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K156" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L156" s="11">
         <v>475915000000</v>
       </c>
-      <c r="H156" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I156" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M156" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N156" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D157" s="9"/>
-      <c r="E157" s="9">
+      <c r="E157" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F157" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G157" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H157" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I157" s="9">
+        <v>110966777</v>
+      </c>
+      <c r="J157" s="9">
         <v>119203822</v>
       </c>
-      <c r="F157" s="9">
+      <c r="K157" s="9">
         <v>122706897</v>
       </c>
-      <c r="G157" s="9">
+      <c r="L157" s="9">
         <v>144549020</v>
       </c>
-      <c r="H157" s="9">
+      <c r="M157" s="9">
         <v>163157895</v>
       </c>
-      <c r="I157" s="9">
+      <c r="N157" s="9">
         <v>150141026</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B158" s="10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D158" s="11"/>
-      <c r="E158" s="11">
+      <c r="E158" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F158" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G158" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H158" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I158" s="11">
+        <v>92642704</v>
+      </c>
+      <c r="J158" s="11">
         <v>108605630</v>
       </c>
-      <c r="F158" s="11">
+      <c r="K158" s="11">
         <v>114776230</v>
       </c>
-      <c r="G158" s="11">
+      <c r="L158" s="11">
         <v>150266677</v>
       </c>
-      <c r="H158" s="11">
+      <c r="M158" s="11">
         <v>129334029</v>
       </c>
-      <c r="I158" s="11">
+      <c r="N158" s="11">
         <v>116334229</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D159" s="9"/>
-      <c r="E159" s="9">
+      <c r="E159" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F159" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G159" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H159" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I159" s="9">
+        <v>67032714</v>
+      </c>
+      <c r="J159" s="9">
         <v>90916404</v>
       </c>
-      <c r="F159" s="9">
+      <c r="K159" s="9">
         <v>101302715</v>
       </c>
-      <c r="G159" s="9">
+      <c r="L159" s="9">
         <v>108836925</v>
       </c>
-      <c r="H159" s="9">
+      <c r="M159" s="9">
         <v>88483215</v>
       </c>
-      <c r="I159" s="9">
+      <c r="N159" s="9">
         <v>109996354</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -3662,8 +5537,13 @@
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J160" s="1"/>
+      <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
+      <c r="M160" s="1"/>
+      <c r="N160" s="1"/>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -3672,8 +5552,13 @@
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J161" s="1"/>
+      <c r="K161" s="1"/>
+      <c r="L161" s="1"/>
+      <c r="M161" s="1"/>
+      <c r="N161" s="1"/>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -3682,10 +5567,15 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
-    </row>
-    <row r="163" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
+      <c r="L162" s="1"/>
+      <c r="M162" s="1"/>
+      <c r="N162" s="1"/>
+    </row>
+    <row r="163" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B163" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C163" s="6"/>
       <c r="D163" s="6"/>
@@ -3704,8 +5594,23 @@
       <c r="I163" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J163" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K163" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L163" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M163" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N163" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -3714,32 +5619,52 @@
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
-    </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
+      <c r="L164" s="1"/>
+      <c r="M164" s="1"/>
+      <c r="N164" s="1"/>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B165" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C165" s="9"/>
       <c r="D165" s="9"/>
       <c r="E165" s="9">
+        <v>-1068</v>
+      </c>
+      <c r="F165" s="9">
+        <v>4074</v>
+      </c>
+      <c r="G165" s="9">
+        <v>11908</v>
+      </c>
+      <c r="H165" s="9">
+        <v>4724</v>
+      </c>
+      <c r="I165" s="9">
+        <v>9498</v>
+      </c>
+      <c r="J165" s="9">
         <v>8416</v>
       </c>
-      <c r="F165" s="9">
+      <c r="K165" s="9">
         <v>22550</v>
       </c>
-      <c r="G165" s="9">
+      <c r="L165" s="9">
         <v>18688</v>
       </c>
-      <c r="H165" s="9">
+      <c r="M165" s="9">
         <v>19640</v>
       </c>
-      <c r="I165" s="9">
+      <c r="N165" s="9">
         <v>18929</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B166" s="10" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C166" s="11"/>
       <c r="D166" s="11"/>
@@ -3758,10 +5683,25 @@
       <c r="I166" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J166" s="11">
+        <v>0</v>
+      </c>
+      <c r="K166" s="11">
+        <v>0</v>
+      </c>
+      <c r="L166" s="11">
+        <v>0</v>
+      </c>
+      <c r="M166" s="11">
+        <v>0</v>
+      </c>
+      <c r="N166" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B167" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C167" s="9"/>
       <c r="D167" s="9"/>
@@ -3780,10 +5720,25 @@
       <c r="I167" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J167" s="9">
+        <v>0</v>
+      </c>
+      <c r="K167" s="9">
+        <v>0</v>
+      </c>
+      <c r="L167" s="9">
+        <v>0</v>
+      </c>
+      <c r="M167" s="9">
+        <v>0</v>
+      </c>
+      <c r="N167" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B168" s="10" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C168" s="11"/>
       <c r="D168" s="11"/>
@@ -3802,98 +5757,173 @@
       <c r="I168" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J168" s="11">
+        <v>0</v>
+      </c>
+      <c r="K168" s="11">
+        <v>0</v>
+      </c>
+      <c r="L168" s="11">
+        <v>0</v>
+      </c>
+      <c r="M168" s="11">
+        <v>0</v>
+      </c>
+      <c r="N168" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B169" s="8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C169" s="9"/>
       <c r="D169" s="9"/>
       <c r="E169" s="9">
+        <v>53384</v>
+      </c>
+      <c r="F169" s="9">
+        <v>40850</v>
+      </c>
+      <c r="G169" s="9">
+        <v>73010</v>
+      </c>
+      <c r="H169" s="9">
+        <v>73063</v>
+      </c>
+      <c r="I169" s="9">
+        <v>113629</v>
+      </c>
+      <c r="J169" s="9">
         <v>73291</v>
       </c>
-      <c r="F169" s="9">
+      <c r="K169" s="9">
         <v>135806</v>
       </c>
-      <c r="G169" s="9">
+      <c r="L169" s="9">
         <v>137105</v>
       </c>
-      <c r="H169" s="9">
+      <c r="M169" s="9">
         <v>220659</v>
       </c>
-      <c r="I169" s="9">
+      <c r="N169" s="9">
         <v>202137</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B170" s="10" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C170" s="11"/>
       <c r="D170" s="11"/>
       <c r="E170" s="11">
+        <v>227597</v>
+      </c>
+      <c r="F170" s="11">
+        <v>305555</v>
+      </c>
+      <c r="G170" s="11">
+        <v>130993</v>
+      </c>
+      <c r="H170" s="11">
+        <v>248270</v>
+      </c>
+      <c r="I170" s="11">
+        <v>222909</v>
+      </c>
+      <c r="J170" s="11">
         <v>377798</v>
       </c>
-      <c r="F170" s="11">
+      <c r="K170" s="11">
         <v>1916875</v>
       </c>
-      <c r="G170" s="11">
+      <c r="L170" s="11">
         <v>551873</v>
       </c>
-      <c r="H170" s="11">
+      <c r="M170" s="11">
         <v>2178045</v>
       </c>
-      <c r="I170" s="11">
+      <c r="N170" s="11">
         <v>1857621</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B171" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C171" s="9"/>
       <c r="D171" s="9"/>
       <c r="E171" s="9">
+        <v>17993</v>
+      </c>
+      <c r="F171" s="9">
+        <v>17727</v>
+      </c>
+      <c r="G171" s="9">
+        <v>15646</v>
+      </c>
+      <c r="H171" s="9">
+        <v>18650</v>
+      </c>
+      <c r="I171" s="9">
+        <v>24489</v>
+      </c>
+      <c r="J171" s="9">
         <v>21675</v>
       </c>
-      <c r="F171" s="9">
+      <c r="K171" s="9">
         <v>23315</v>
       </c>
-      <c r="G171" s="9">
+      <c r="L171" s="9">
         <v>27540</v>
       </c>
-      <c r="H171" s="9">
+      <c r="M171" s="9">
         <v>25699</v>
       </c>
-      <c r="I171" s="9">
+      <c r="N171" s="9">
         <v>26554</v>
       </c>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B172" s="10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C172" s="11"/>
       <c r="D172" s="11"/>
       <c r="E172" s="11">
+        <v>287706</v>
+      </c>
+      <c r="F172" s="11">
+        <v>314850</v>
+      </c>
+      <c r="G172" s="11">
+        <v>425221</v>
+      </c>
+      <c r="H172" s="11">
+        <v>413348</v>
+      </c>
+      <c r="I172" s="11">
+        <v>445674</v>
+      </c>
+      <c r="J172" s="11">
         <v>426909</v>
       </c>
-      <c r="F172" s="11">
+      <c r="K172" s="11">
         <v>594830</v>
       </c>
-      <c r="G172" s="11">
+      <c r="L172" s="11">
         <v>875817</v>
       </c>
-      <c r="H172" s="11">
+      <c r="M172" s="11">
         <v>1146003</v>
       </c>
-      <c r="I172" s="11">
+      <c r="N172" s="11">
         <v>989592</v>
       </c>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B173" s="8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C173" s="9"/>
       <c r="D173" s="9"/>
@@ -3912,52 +5942,97 @@
       <c r="I173" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J173" s="9">
+        <v>0</v>
+      </c>
+      <c r="K173" s="9">
+        <v>0</v>
+      </c>
+      <c r="L173" s="9">
+        <v>0</v>
+      </c>
+      <c r="M173" s="9">
+        <v>0</v>
+      </c>
+      <c r="N173" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B174" s="10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C174" s="11"/>
       <c r="D174" s="11"/>
       <c r="E174" s="11">
+        <v>73843</v>
+      </c>
+      <c r="F174" s="11">
+        <v>60001</v>
+      </c>
+      <c r="G174" s="11">
+        <v>58394</v>
+      </c>
+      <c r="H174" s="11">
+        <v>15664</v>
+      </c>
+      <c r="I174" s="11">
+        <v>97140</v>
+      </c>
+      <c r="J174" s="11">
         <v>79706</v>
       </c>
-      <c r="F174" s="11">
+      <c r="K174" s="11">
         <v>288558</v>
       </c>
-      <c r="G174" s="11">
+      <c r="L174" s="11">
         <v>398417</v>
       </c>
-      <c r="H174" s="11">
+      <c r="M174" s="11">
         <v>-248694</v>
       </c>
-      <c r="I174" s="11">
+      <c r="N174" s="11">
         <v>68438</v>
       </c>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B175" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C175" s="15"/>
       <c r="D175" s="15"/>
       <c r="E175" s="15">
+        <v>659455</v>
+      </c>
+      <c r="F175" s="15">
+        <v>743057</v>
+      </c>
+      <c r="G175" s="15">
+        <v>715172</v>
+      </c>
+      <c r="H175" s="15">
+        <v>773719</v>
+      </c>
+      <c r="I175" s="15">
+        <v>913339</v>
+      </c>
+      <c r="J175" s="15">
         <v>987795</v>
       </c>
-      <c r="F175" s="15">
+      <c r="K175" s="15">
         <v>2981934</v>
       </c>
-      <c r="G175" s="15">
+      <c r="L175" s="15">
         <v>2009440</v>
       </c>
-      <c r="H175" s="15">
+      <c r="M175" s="15">
         <v>3341352</v>
       </c>
-      <c r="I175" s="15">
+      <c r="N175" s="15">
         <v>3163271</v>
       </c>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -3966,8 +6041,13 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
-    </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J176" s="1"/>
+      <c r="K176" s="1"/>
+      <c r="L176" s="1"/>
+      <c r="M176" s="1"/>
+      <c r="N176" s="1"/>
+    </row>
+    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -3976,8 +6056,13 @@
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
-    </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J177" s="1"/>
+      <c r="K177" s="1"/>
+      <c r="L177" s="1"/>
+      <c r="M177" s="1"/>
+      <c r="N177" s="1"/>
+    </row>
+    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -3986,10 +6071,15 @@
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
-    </row>
-    <row r="179" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J178" s="1"/>
+      <c r="K178" s="1"/>
+      <c r="L178" s="1"/>
+      <c r="M178" s="1"/>
+      <c r="N178" s="1"/>
+    </row>
+    <row r="179" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B179" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C179" s="6"/>
       <c r="D179" s="6"/>
@@ -3998,8 +6088,13 @@
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
-    </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J179" s="1"/>
+      <c r="K179" s="1"/>
+      <c r="L179" s="1"/>
+      <c r="M179" s="1"/>
+      <c r="N179" s="1"/>
+    </row>
+    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -4008,13 +6103,18 @@
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
-    </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J180" s="1"/>
+      <c r="K180" s="1"/>
+      <c r="L180" s="1"/>
+      <c r="M180" s="1"/>
+      <c r="N180" s="1"/>
+    </row>
+    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B181" s="8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D181" s="9"/>
       <c r="E181" s="9"/>
@@ -4022,13 +6122,18 @@
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
-    </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J181" s="1"/>
+      <c r="K181" s="1"/>
+      <c r="L181" s="1"/>
+      <c r="M181" s="1"/>
+      <c r="N181" s="1"/>
+    </row>
+    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B182" s="10" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C182" s="11" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D182" s="11"/>
       <c r="E182" s="11"/>
@@ -4036,112 +6141,117 @@
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
-    </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J182" s="1"/>
+      <c r="K182" s="1"/>
+      <c r="L182" s="1"/>
+      <c r="M182" s="1"/>
+      <c r="N182" s="1"/>
+    </row>
+    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B183" s="8" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C183" s="9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D183" s="9"/>
       <c r="E183" s="9"/>
       <c r="F183" s="9"/>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B184" s="10" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C184" s="11" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D184" s="11"/>
       <c r="E184" s="11"/>
       <c r="F184" s="11"/>
     </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B185" s="8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D185" s="9"/>
       <c r="E185" s="9"/>
       <c r="F185" s="9"/>
     </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B186" s="10" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D186" s="11"/>
       <c r="E186" s="11"/>
       <c r="F186" s="11"/>
     </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B187" s="8" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D187" s="9"/>
       <c r="E187" s="9"/>
       <c r="F187" s="9"/>
     </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B188" s="10" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D188" s="11"/>
       <c r="E188" s="11"/>
       <c r="F188" s="11"/>
     </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B189" s="8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D189" s="9"/>
       <c r="E189" s="9"/>
       <c r="F189" s="9"/>
     </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B190" s="10" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D190" s="11"/>
       <c r="E190" s="11"/>
       <c r="F190" s="11"/>
     </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B191" s="8" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D191" s="9"/>
       <c r="E191" s="9"/>
       <c r="F191" s="9"/>
     </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B192" s="10" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D192" s="11"/>
       <c r="E192" s="11"/>
@@ -4149,10 +6259,10 @@
     </row>
     <row r="193" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B193" s="8" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D193" s="9"/>
       <c r="E193" s="9"/>

--- a/database/industries/ravankar/sheranol/cost/quarterly.xlsx
+++ b/database/industries/ravankar/sheranol/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ravankar\sheranol\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ravankar\sheranol\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE98396-3171-42F8-AE81-A2F522095149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C560614-AA02-45D7-A4C7-0716FEA61FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -728,12 +728,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -748,7 +748,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -765,7 +765,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -782,7 +782,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -797,7 +797,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -814,7 +814,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -831,7 +831,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -846,7 +846,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -883,7 +883,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -898,7 +898,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
@@ -935,7 +935,7 @@
         <v>18652132</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -972,7 +972,7 @@
         <v>353933</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>3163271</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>22169336</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>22169336</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>1199985</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>23369321</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="11">
-        <v>1</v>
+        <v>691969</v>
       </c>
       <c r="H19" s="11">
         <v>602773</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="J19" s="11">
-        <v>0</v>
+        <v>1222698</v>
       </c>
       <c r="K19" s="11">
-        <v>460895</v>
+        <v>1683593</v>
       </c>
       <c r="L19" s="11">
         <v>1833301</v>
@@ -1268,7 +1268,7 @@
         <v>2799861</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>335480</v>
       </c>
       <c r="G20" s="9">
-        <v>89196</v>
+        <v>-602773</v>
       </c>
       <c r="H20" s="9">
         <v>-1174141</v>
@@ -1290,7 +1290,7 @@
         <v>-48557</v>
       </c>
       <c r="J20" s="9">
-        <v>-460895</v>
+        <v>-1683593</v>
       </c>
       <c r="K20" s="9">
         <v>-1833301</v>
@@ -1305,7 +1305,7 @@
         <v>-2827475</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>25</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>23341707</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>26</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>163699</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>27</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>23505406</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1431,7 +1431,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1446,7 +1446,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1461,7 +1461,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>28</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1513,7 +1513,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>29</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>11778</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>31</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>32</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>33</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>9577</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>34</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>35</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>17</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>22395</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1799,7 +1799,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1814,7 +1814,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1829,7 +1829,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B39" s="7" t="s">
         <v>37</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1881,7 +1881,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>29</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>31</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>32</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>4006</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>33</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>109363</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>34</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>34392</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>35</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>17</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>149402</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2167,7 +2167,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2182,7 +2182,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2197,7 +2197,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
         <v>38</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2249,7 +2249,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>29</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>3715</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>31</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>32</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>3517</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>33</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>100342</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>34</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>32632</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>35</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="14" t="s">
         <v>17</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>140206</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2535,7 +2535,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2550,7 +2550,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2565,7 +2565,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B63" s="7" t="s">
         <v>39</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2617,7 +2617,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>29</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>9704</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>31</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>32</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>33</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>18598</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>34</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>2743</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>35</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="14" t="s">
         <v>17</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>31591</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2903,7 +2903,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2918,7 +2918,7 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2933,7 +2933,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B75" s="7" t="s">
         <v>40</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2985,7 +2985,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>29</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>6476432</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>31</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>591887</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>32</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>9300</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>33</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>1238632</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>34</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>86979</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>35</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="14" t="s">
         <v>17</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>8403230</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -3271,7 +3271,7 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -3286,7 +3286,7 @@
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -3301,7 +3301,7 @@
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
     </row>
-    <row r="87" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B87" s="7" t="s">
         <v>42</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3353,7 +3353,7 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>29</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>1506754</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>31</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>1470575</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>32</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>587897</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>33</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>12105108</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="8" t="s">
         <v>34</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>3466913</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>35</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="14" t="s">
         <v>17</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>19137247</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3639,7 +3639,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -3654,7 +3654,7 @@
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3669,7 +3669,7 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B99" s="7" t="s">
         <v>43</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -3721,7 +3721,7 @@
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>29</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>2234009</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>31</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>1470575</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>32</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>515220</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
         <v>33</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>11180156</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
         <v>34</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>3252172</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
         <v>35</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="14" t="s">
         <v>17</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>18652132</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -4007,7 +4007,7 @@
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -4022,7 +4022,7 @@
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -4037,7 +4037,7 @@
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
     </row>
-    <row r="111" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B111" s="7" t="s">
         <v>44</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -4089,7 +4089,7 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>29</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>5749177</v>
       </c>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>31</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>591887</v>
       </c>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>32</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>81977</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>33</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>2163584</v>
       </c>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>34</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>301720</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>35</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="14" t="s">
         <v>17</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>8888345</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -4375,7 +4375,7 @@
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -4390,7 +4390,7 @@
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -4405,7 +4405,7 @@
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
     </row>
-    <row r="123" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B123" s="7" t="s">
         <v>45</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -4457,7 +4457,7 @@
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>29</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>549875361</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>31</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>32</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>163157895</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>33</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>129334029</v>
       </c>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>34</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>88483215</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -4667,7 +4667,7 @@
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -4682,7 +4682,7 @@
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -4697,7 +4697,7 @@
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
     </row>
-    <row r="133" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B133" s="7" t="s">
         <v>47</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -4749,7 +4749,7 @@
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>29</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>918192566</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>31</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>32</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>146754119</v>
       </c>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>33</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>110687417</v>
       </c>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
         <v>34</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>100805798</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -4959,7 +4959,7 @@
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -4974,7 +4974,7 @@
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -4989,7 +4989,7 @@
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
     </row>
-    <row r="143" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B143" s="7" t="s">
         <v>48</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -5041,7 +5041,7 @@
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
         <v>29</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>601348318</v>
       </c>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>31</v>
       </c>
@@ -5119,7 +5119,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
         <v>32</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>146494171</v>
       </c>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="10" t="s">
         <v>33</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>111420502</v>
       </c>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="8" t="s">
         <v>34</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>99662050</v>
       </c>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -5251,7 +5251,7 @@
       <c r="M150" s="1"/>
       <c r="N150" s="1"/>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -5266,7 +5266,7 @@
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -5281,7 +5281,7 @@
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
     </row>
-    <row r="153" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B153" s="7" t="s">
         <v>49</v>
       </c>
@@ -5318,7 +5318,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -5333,7 +5333,7 @@
       <c r="M154" s="1"/>
       <c r="N154" s="1"/>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="8" t="s">
         <v>29</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>592454349</v>
       </c>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="10" t="s">
         <v>31</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
         <v>32</v>
       </c>
@@ -5450,7 +5450,7 @@
         <v>150141026</v>
       </c>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
         <v>33</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>116334229</v>
       </c>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="8" t="s">
         <v>34</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>109996354</v>
       </c>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -5543,7 +5543,7 @@
       <c r="M160" s="1"/>
       <c r="N160" s="1"/>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -5558,7 +5558,7 @@
       <c r="M161" s="1"/>
       <c r="N161" s="1"/>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -5573,7 +5573,7 @@
       <c r="M162" s="1"/>
       <c r="N162" s="1"/>
     </row>
-    <row r="163" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B163" s="7" t="s">
         <v>50</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -5625,7 +5625,7 @@
       <c r="M164" s="1"/>
       <c r="N164" s="1"/>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="8" t="s">
         <v>51</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>18929</v>
       </c>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="10" t="s">
         <v>52</v>
       </c>
@@ -5699,7 +5699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B167" s="8" t="s">
         <v>53</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B168" s="10" t="s">
         <v>54</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B169" s="8" t="s">
         <v>55</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>202137</v>
       </c>
     </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B170" s="10" t="s">
         <v>56</v>
       </c>
@@ -5847,7 +5847,7 @@
         <v>1857621</v>
       </c>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B171" s="8" t="s">
         <v>57</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>26554</v>
       </c>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B172" s="10" t="s">
         <v>58</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>989592</v>
       </c>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B173" s="8" t="s">
         <v>59</v>
       </c>
@@ -5958,7 +5958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B174" s="10" t="s">
         <v>60</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>68438</v>
       </c>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B175" s="14" t="s">
         <v>17</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>3163271</v>
       </c>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -6047,7 +6047,7 @@
       <c r="M176" s="1"/>
       <c r="N176" s="1"/>
     </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -6062,7 +6062,7 @@
       <c r="M177" s="1"/>
       <c r="N177" s="1"/>
     </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -6077,7 +6077,7 @@
       <c r="M178" s="1"/>
       <c r="N178" s="1"/>
     </row>
-    <row r="179" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B179" s="7" t="s">
         <v>61</v>
       </c>
@@ -6094,7 +6094,7 @@
       <c r="M179" s="1"/>
       <c r="N179" s="1"/>
     </row>
-    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -6109,7 +6109,7 @@
       <c r="M180" s="1"/>
       <c r="N180" s="1"/>
     </row>
-    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B181" s="8" t="s">
         <v>62</v>
       </c>
@@ -6128,7 +6128,7 @@
       <c r="M181" s="1"/>
       <c r="N181" s="1"/>
     </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B182" s="10" t="s">
         <v>64</v>
       </c>
@@ -6147,7 +6147,7 @@
       <c r="M182" s="1"/>
       <c r="N182" s="1"/>
     </row>
-    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B183" s="8" t="s">
         <v>66</v>
       </c>
@@ -6158,7 +6158,7 @@
       <c r="E183" s="9"/>
       <c r="F183" s="9"/>
     </row>
-    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B184" s="10" t="s">
         <v>68</v>
       </c>
@@ -6169,7 +6169,7 @@
       <c r="E184" s="11"/>
       <c r="F184" s="11"/>
     </row>
-    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B185" s="8" t="s">
         <v>68</v>
       </c>
@@ -6180,7 +6180,7 @@
       <c r="E185" s="9"/>
       <c r="F185" s="9"/>
     </row>
-    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B186" s="10" t="s">
         <v>71</v>
       </c>
@@ -6191,7 +6191,7 @@
       <c r="E186" s="11"/>
       <c r="F186" s="11"/>
     </row>
-    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B187" s="8" t="s">
         <v>73</v>
       </c>
@@ -6202,7 +6202,7 @@
       <c r="E187" s="9"/>
       <c r="F187" s="9"/>
     </row>
-    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B188" s="10" t="s">
         <v>75</v>
       </c>
@@ -6213,7 +6213,7 @@
       <c r="E188" s="11"/>
       <c r="F188" s="11"/>
     </row>
-    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B189" s="8" t="s">
         <v>76</v>
       </c>
@@ -6224,7 +6224,7 @@
       <c r="E189" s="9"/>
       <c r="F189" s="9"/>
     </row>
-    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B190" s="10" t="s">
         <v>78</v>
       </c>
@@ -6235,7 +6235,7 @@
       <c r="E190" s="11"/>
       <c r="F190" s="11"/>
     </row>
-    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B191" s="8" t="s">
         <v>79</v>
       </c>
@@ -6246,7 +6246,7 @@
       <c r="E191" s="9"/>
       <c r="F191" s="9"/>
     </row>
-    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B192" s="10" t="s">
         <v>75</v>
       </c>
@@ -6257,7 +6257,7 @@
       <c r="E192" s="11"/>
       <c r="F192" s="11"/>
     </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B193" s="8" t="s">
         <v>81</v>
       </c>
